--- a/tableau/Tableau Change Log.xlsx
+++ b/tableau/Tableau Change Log.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata.sharepoint.com/teams/2019Teams-Covid19dashboard/Shared Documents/Covid19 dashboard/Tableau Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86155134-15D5-4417-A441-EAE5C0150CC0}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A073674E-C3FE-47E5-ABC9-F97B95A1E126}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{01455932-1564-402F-BA8D-1E5065AB49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date/Time</t>
   </si>
@@ -246,12 +246,53 @@
 Known Issues:_x000D_
 -More than 1 peak ICU date causes inflation in employee counts</t>
   </si>
+  <si>
+    <t>8/8/20 10a CT</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1 Hospital Trends: Change TT on map and graph to show # of tests on date, and ALSO changed the per 100K calc to use the # of tests on date (it was erroneously using the cumulative one)_x000D_
+2 Changes to Data Source text
+Known Issues:_x000D_
+-More than 1 peak ICU date causes inflation in employee counts</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>8/11/20 1130a CT</t>
+  </si>
+  <si>
+    <t>1 Hospital Trends: Removed the line graph from filtering the map
+2 Hospitalization Rates: Removed the line graph from filtering the map
+3 Exec Summary: 2nd row 2nd grouping Mobility -- NA and Data unavailable added to screen and tool tip.  The previous # appears on top of the bar for testing purposes. 
+4 full data refresh
+Known Issues: (remove the old change vs prev # when done testing)
+Peak ICU date fixed (employee no longer inflated).</t>
+  </si>
+  <si>
+    <t>8/12/20 850a CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Removed the "max()" handling on all employee and site fields now that we don't have &gt;1 peak ICU dates.  Employee counts are now correct on the employee tab and site tab.
+2 Removed the "old" change over prev mobility #. Use v15 for future testing for this item. </t>
+  </si>
+  <si>
+    <t>8/13/20 7pm CT</t>
+  </si>
+  <si>
+    <t>1 Data source updates on Exec Summ and the 2 Data Source tabs
+2 Exec Sum: Centered the label over Previous Status on Timeline to Safety 
+3 full data refresh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,20 +664,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9ECC-374F-4739-81FE-01203D780024}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="117.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="117.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="99.75">
+    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -658,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57">
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -669,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="142.5">
+    <row r="4" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="270.75">
+    <row r="5" spans="1:3" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -702,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -713,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171">
+    <row r="8" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -724,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="99.75">
+    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -735,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="142.5">
+    <row r="10" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -746,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75">
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -757,7 +798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="213.75">
+    <row r="12" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -768,7 +809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -779,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="199.5">
+    <row r="14" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -790,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="180">
+    <row r="15" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -801,7 +842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="105">
+    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -810,6 +851,50 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -819,15 +904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0BB004135BA7E438DDEE5AFF9643195" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02fa29c6f17eb6796f211e3309d1ac57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="775a2d29a009bf4d25d1edb95a55125d" ns2:_="">
     <xsd:import namespace="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
@@ -991,6 +1067,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -998,13 +1083,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EABCE-C029-4492-9CAD-52D628540395}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EABCE-C029-4492-9CAD-52D628540395}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tableau/Tableau Change Log.xlsx
+++ b/tableau/Tableau Change Log.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23223"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata.sharepoint.com/teams/2019Teams-Covid19dashboard/Shared Documents/Covid19 dashboard/Tableau Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A073674E-C3FE-47E5-ABC9-F97B95A1E126}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{290230FC-904E-486F-89CD-B3C595D359A1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{01455932-1564-402F-BA8D-1E5065AB49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date/Time</t>
   </si>
@@ -259,10 +259,10 @@
 -More than 1 peak ICU date causes inflation in employee counts</t>
   </si>
   <si>
+    <t>8/11/20 1130a CT</t>
+  </si>
+  <si>
     <t>0.15</t>
-  </si>
-  <si>
-    <t>8/11/20 1130a CT</t>
   </si>
   <si>
     <t>1 Hospital Trends: Removed the line graph from filtering the map
@@ -287,12 +287,57 @@
 2 Exec Sum: Centered the label over Previous Status on Timeline to Safety 
 3 full data refresh</t>
   </si>
+  <si>
+    <t>8/19/20 10am CT
+then 515pm CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Full Data Refresh
+2 Employee Map TT - Add county name 
+3 Employee page/labels: lower section:
+-Remove “Employees”​ label -Site? -Status -Employees​ (Total)​ -Employees​ (Office)​ -Employees​ (Virtual)​ -Cases to Date​
+-Deaths to Date​ -Daily New Cases per 100k​ -NEW FIELD: Daily New Cases -Made same changes for TTs
+4 Site Map TT - Change “Contingent” to “Non-FTE”
+5 Site page/labels:  Upper section:
+-Metro Areas with Site Locations -Summary by Metro Area​ -Site Name (Metro Area)​ -Employees at Site​ -Avg Site​ Attendance​
+-Put Employees at Site first -Daily New Cases per 100k​ -Made same changes for TTs
+6 Site page/labels: lower section:
+-Status (added to be consistent with Emp) -Employees at Site​ -FTEs at Site​ -Non-FTEs at Site​ -Employees​ (Total)​
+-Employees​ (Office)​ -Employees​ (Virtual)​ -Cases to Date​ -Deaths to Date​ -Daily New Cases per 100k​
+-NEW FIELD: Daily New Cases
+-Made same changes for TTs
+7 Recovery Details:
+-Made locate a county larger
+-Put all the selections at the top of the map in a container and made that space bigger b/c when the screen expanded those were falling off the top out of alignment
+-NEW FIELD: Daily New Cases (also to TT)
+8 Hosp Trends: all charts are limited to the latest date minus 1 day, Daily Tests, Deaths, and Cases charts under the map are now a 7 day moving average. </t>
+  </si>
+  <si>
+    <t>8/20/20 11am CT</t>
+  </si>
+  <si>
+    <t>1 Full data refresh
+2 Info button TT on exec sum and recovery details
+3 TT for health sections on exec sum
+4 Data source p1 and p2 updates</t>
+  </si>
+  <si>
+    <t>8/24/2020 2pm CT
+8/28/2020 1215p CT</t>
+  </si>
+  <si>
+    <t>1 Full data refresh
+2 trend lines for google search
+NEW DATA SOURCE: F_IND_DASH_GOOGLE_TRENDS_V
+3 8-28 full data refresh
+4 8-28 added google search text re: instability in API</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,20 +712,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9ECC-374F-4739-81FE-01203D780024}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="117.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="99.75">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -699,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="57">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -710,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="142.5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -721,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="270.75">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -743,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="28.5">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="171">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="99.75">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -776,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="142.5">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -787,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="42.75">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -798,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="213.75">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -809,7 +857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="42.75">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -820,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="199.5">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -831,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="156.75">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -842,7 +890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="99.75">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -853,7 +901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="71.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -864,18 +912,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="99.75">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="42.75">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -886,7 +934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="42.75">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -895,6 +943,39 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="299.25">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75">
+      <c r="A23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -904,6 +985,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0BB004135BA7E438DDEE5AFF9643195" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02fa29c6f17eb6796f211e3309d1ac57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="775a2d29a009bf4d25d1edb95a55125d" ns2:_="">
     <xsd:import namespace="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
@@ -1067,7 +1154,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1076,50 +1163,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EABCE-C029-4492-9CAD-52D628540395}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EABCE-C029-4492-9CAD-52D628540395}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}"/>
 </file>
--- a/tableau/Tableau Change Log.xlsx
+++ b/tableau/Tableau Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teradata.sharepoint.com/teams/2019Teams-Covid19dashboard/Shared Documents/Covid19 dashboard/Tableau Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{290230FC-904E-486F-89CD-B3C595D359A1}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{13708DBD-4FF2-4C1E-83B3-F648A7F9A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57F08BFC-165C-46F4-A6E2-C4E4C95B7898}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{01455932-1564-402F-BA8D-1E5065AB49FC}"/>
   </bookViews>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Date/Time</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Who</t>
   </si>
   <si>
     <t>7/15/2020  6:23 PM CT</t>
@@ -52,6 +56,9 @@
 3 I got a new image with the name in the graphic (so it looks better "responsive to resolution" but something is weird for top header bar on first dashboard vs the others_x000D_
 4 New Dashboard Hospital rates is there _x000D_
 5 Known data issues:  TD Sites are still missing</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
   <si>
     <t>7/15/2020  10PM CT</t>
@@ -331,6 +338,22 @@
 NEW DATA SOURCE: F_IND_DASH_GOOGLE_TRENDS_V
 3 8-28 full data refresh
 4 8-28 added google search text re: instability in API</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>10/2/2020 3PM CT</t>
+  </si>
+  <si>
+    <t>v0.20.3</t>
+  </si>
+  <si>
+    <t>1 Data sources p2 updates
+2 Hosp Rates: Added reference band to all graphs showing no data 8/13-8/27 and updated tool tips with desc of data source</t>
   </si>
 </sst>
 </file>
@@ -712,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9ECC-374F-4739-81FE-01203D780024}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -725,7 +748,7 @@
     <col min="3" max="3" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -735,247 +758,335 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="99.75">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="99.75">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>0.06</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="142.5">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="142.5">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="270.75">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="270.75">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>0.03</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>0.03</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>0.04</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="171">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="171">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>0.05</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="99.75">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="99.75">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>0.06</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="142.5">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="142.5">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>0.08</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="213.75">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="213.75">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>0.09</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="199.5">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="199.5">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="156.75">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="156.75">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="99.75">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="99.75">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>0.13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="71.25">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="71.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="99.75">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99.75">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42.75">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2">
         <v>0.16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="42.75">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42.75">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>0.17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="299.25">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="299.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>0.18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="57">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>0.19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="75">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2">
         <v>0.2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -985,15 +1096,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0BB004135BA7E438DDEE5AFF9643195" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02fa29c6f17eb6796f211e3309d1ac57">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="775a2d29a009bf4d25d1edb95a55125d" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0BB004135BA7E438DDEE5AFF9643195" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eae2ae7ef03fbf5c5da41f15b480c523">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e" xmlns:ns3="4a00ed4c-990f-4df9-a190-9a828495fe35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6c715e37c016a4d8210a4d06a7201f9" ns2:_="" ns3:_="">
     <xsd:import namespace="68ec2f0f-435b-4dc7-b5ba-99cb48143b1e"/>
+    <xsd:import namespace="4a00ed4c-990f-4df9-a190-9a828495fe35"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1007,6 +1122,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1052,6 +1169,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a00ed4c-990f-4df9-a190-9a828495fe35" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1155,22 +1302,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56EABCE-C029-4492-9CAD-52D628540395}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FD2C3D-4839-4F20-8597-4B0CDB384BC4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA8B386C-3C69-4B1B-B91D-4B5C526CED7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1328D086-0485-43CB-A09D-E0EB716A1EF9}"/>
 </file>